--- a/作業フォルダー/保険一覧 - コピー.xlsx
+++ b/作業フォルダー/保険一覧 - コピー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DF2613-CF08-4C1D-8303-8C0FDBDE8572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9493CC77-AB29-4CE6-85E4-FA2319238344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="87">
   <si>
     <t>①ネオdeいりょう</t>
   </si>
@@ -365,6 +365,53 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>2023年2月の合計</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>川田  慎也</t>
+  </si>
+  <si>
+    <t>堀田  輝貴</t>
+  </si>
+  <si>
+    <t>木村  勇貴</t>
+  </si>
+  <si>
+    <t>自由がん</t>
+  </si>
+  <si>
+    <t>小椋  ＊太</t>
+  </si>
+  <si>
+    <t>川田  ＊也</t>
+  </si>
+  <si>
+    <t>木村  ＊志</t>
+  </si>
+  <si>
+    <t>2023年3月の合計</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -376,7 +423,7 @@
     <numFmt numFmtId="178" formatCode="\¥#,##0"/>
     <numFmt numFmtId="179" formatCode="\¥0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +491,13 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -594,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -664,9 +718,6 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -709,6 +760,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -991,10 +1047,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:S514"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204:E208"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4727,13 +4786,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39:J39"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4792,10 +4851,10 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="40">
+      <c r="A4" s="39">
         <v>44896</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="42">
         <v>44951</v>
       </c>
       <c r="C4" s="31" t="s">
@@ -4807,29 +4866,29 @@
       <c r="E4" s="32">
         <v>20221108</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="50" t="s">
         <v>51</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="33">
         <v>44664</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="34">
         <v>0.5</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="33">
         <f>I4*J4</f>
         <v>22332</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="41"/>
-      <c r="B5" s="44"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="31" t="s">
         <v>48</v>
       </c>
@@ -4839,29 +4898,29 @@
       <c r="E5" s="32">
         <v>20221108</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="50" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <v>7776</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="34">
         <v>0.5</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="33">
         <f t="shared" ref="K5:K38" si="0">I5*J5</f>
         <v>3888</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="41"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="31" t="s">
         <v>48</v>
       </c>
@@ -4871,29 +4930,29 @@
       <c r="E6" s="32">
         <v>20221109</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="50" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="33">
         <v>81228</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="34">
         <v>0.5</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="33">
         <f t="shared" si="0"/>
         <v>40614</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="41"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="31" t="s">
         <v>48</v>
       </c>
@@ -4903,29 +4962,29 @@
       <c r="E7" s="32">
         <v>20221111</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="50" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="33">
         <v>46296</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="34">
         <v>0.5</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="33">
         <f t="shared" si="0"/>
         <v>23148</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="41"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="31" t="s">
         <v>48</v>
       </c>
@@ -4935,29 +4994,29 @@
       <c r="E8" s="32">
         <v>20221111</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="50" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="33">
         <v>7944</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="34">
         <v>0.5</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="33">
         <f t="shared" si="0"/>
         <v>3972</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="41"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="31" t="s">
         <v>48</v>
       </c>
@@ -4967,29 +5026,29 @@
       <c r="E9" s="32">
         <v>20221111</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="50" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="33">
         <v>34452</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="34">
         <v>0.5</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="33">
         <f t="shared" si="0"/>
         <v>17226</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="31" t="s">
         <v>48</v>
       </c>
@@ -4999,29 +5058,29 @@
       <c r="E10" s="32">
         <v>20221111</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="50" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="33">
         <v>10392</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="34">
         <v>0.5</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="33">
         <f t="shared" si="0"/>
         <v>5196</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="41"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="31" t="s">
         <v>48</v>
       </c>
@@ -5031,29 +5090,29 @@
       <c r="E11" s="32">
         <v>20221111</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="50" t="s">
         <v>54</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="33">
         <v>70104</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="34">
         <v>0.5</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="33">
         <f t="shared" si="0"/>
         <v>35052</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="41"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="31" t="s">
         <v>48</v>
       </c>
@@ -5063,29 +5122,29 @@
       <c r="E12" s="32">
         <v>20221115</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="50" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="33">
         <v>82548</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="34">
         <v>0.5</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="33">
         <f t="shared" si="0"/>
         <v>41274</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="36" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="31" t="s">
         <v>48</v>
       </c>
@@ -5095,29 +5154,29 @@
       <c r="E13" s="32">
         <v>20220901</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="33">
         <v>3873</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="34">
         <v>0.5</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="33">
         <f t="shared" si="0"/>
         <v>1936.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="36" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="31" t="s">
         <v>48</v>
       </c>
@@ -5127,29 +5186,29 @@
       <c r="E14" s="32">
         <v>20220901</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="33">
         <v>2407</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="34">
         <v>0.5</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="33">
         <f t="shared" si="0"/>
         <v>1203.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="36" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="31" t="s">
         <v>48</v>
       </c>
@@ -5159,770 +5218,1433 @@
       <c r="E15" s="32">
         <v>20220901</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <v>2578</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="34">
         <v>0.5</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="33">
         <f t="shared" si="0"/>
         <v>1289</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="36">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="35">
         <f>SUM(K4:K15)</f>
         <v>197131</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="46">
+      <c r="A17" s="45">
         <v>44958</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="37" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="36">
         <v>20221219</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <v>44664</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="34">
         <v>0.7</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="33">
         <f t="shared" si="0"/>
         <v>31264.799999999999</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="37" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <v>20221219</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="33">
         <v>7776</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="34">
         <v>0.7</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="33">
         <f t="shared" si="0"/>
         <v>5443.2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="37" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="36">
         <v>20221219</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="33">
         <v>81228</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="34">
         <v>0.7</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="33">
         <f t="shared" si="0"/>
         <v>56859.6</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="37" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="36">
         <v>20221220</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="33">
         <v>68136</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <v>0.7</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="33">
         <f t="shared" si="0"/>
         <v>47695.199999999997</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="37" t="s">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="36">
         <v>20221220</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="33">
         <v>10536</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="34">
         <v>0.7</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="33">
         <f t="shared" si="0"/>
         <v>7375.2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="37" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <v>20221221</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="33">
         <v>96744</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="34">
         <v>0.7</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="33">
         <f t="shared" si="0"/>
         <v>67720.800000000003</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="37" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="36">
         <v>20220901</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="33">
         <v>3530</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="34">
         <v>0.7</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="33">
         <f t="shared" si="0"/>
         <v>2471</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="37" t="s">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="36">
         <v>20220901</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="37">
         <v>343</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="34">
         <v>0.7</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="33">
         <f t="shared" si="0"/>
         <v>240.1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="37" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="36">
         <v>20220901</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="33">
         <v>2065</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="34">
         <v>0.7</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="33">
         <f t="shared" si="0"/>
         <v>1445.5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="37" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="36">
         <v>20220901</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="37">
         <v>342</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="34">
         <v>0.7</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="33">
         <f t="shared" si="0"/>
         <v>239.39999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="37" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="36">
         <v>20220901</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="33">
         <v>2236</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="34">
         <v>0.7</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="33">
         <f t="shared" si="0"/>
         <v>1565.1999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="37" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="36">
         <v>20220901</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="37">
         <v>342</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="34">
         <v>0.7</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="33">
         <f t="shared" si="0"/>
         <v>239.39999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="37" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="36">
         <v>20221101</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="33">
         <v>2427</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="34">
         <v>0.7</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="33">
         <f t="shared" si="0"/>
         <v>1698.8999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="37" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="36">
         <v>20221101</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="37">
         <v>342</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="34">
         <v>0.7</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="33">
         <f t="shared" si="0"/>
         <v>239.39999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="37" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="36">
         <v>20221101</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="33">
         <v>1219</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="34">
         <v>0.7</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="33">
         <f t="shared" si="0"/>
         <v>853.3</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="37" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="36">
         <v>20221101</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="37">
         <v>372</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="34">
         <v>0.7</v>
       </c>
-      <c r="K32" s="34">
+      <c r="K32" s="33">
         <f t="shared" si="0"/>
         <v>260.39999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="37" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="36">
         <v>20230101</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="33">
         <v>1065</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="34">
         <v>0.7</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="33">
         <f t="shared" si="0"/>
         <v>745.5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="37" t="s">
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="36">
         <v>20230101</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="37">
         <v>387</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="34">
         <v>0.7</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="33">
         <f t="shared" si="0"/>
         <v>270.89999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="37" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="36">
         <v>20230101</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="37" t="s">
+      <c r="G35" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="37" t="s">
+      <c r="H35" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="33">
         <v>2624</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="34">
         <v>0.7</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="33">
         <f t="shared" si="0"/>
         <v>1836.8</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="37" t="s">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="37">
+      <c r="E36" s="36">
         <v>20230101</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="37">
         <v>386</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="34">
         <v>0.7</v>
       </c>
-      <c r="K36" s="34">
+      <c r="K36" s="33">
         <f t="shared" si="0"/>
         <v>270.2</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="37" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="36">
         <v>20230101</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="37" t="s">
+      <c r="H37" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="33">
         <v>2286</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="34">
         <v>0.7</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="33">
         <f t="shared" si="0"/>
         <v>1600.1999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="37" t="s">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="36">
         <v>20230101</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="37" t="s">
+      <c r="G38" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="H38" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="I38" s="38">
+      <c r="I38" s="37">
         <v>387</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38" s="34">
         <v>0.7</v>
       </c>
-      <c r="K38" s="34">
+      <c r="K38" s="33">
         <f t="shared" si="0"/>
         <v>270.89999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="36">
+      <c r="A39" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="35">
         <f>SUM(K17:K38)</f>
         <v>230605.89999999997</v>
       </c>
     </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="45">
+        <v>44986</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="48">
+        <v>20221228</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" s="37">
+        <v>9600</v>
+      </c>
+      <c r="J40" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K40" s="33">
+        <f>I40*J40</f>
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="48">
+        <v>20230125</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="37">
+        <v>62868</v>
+      </c>
+      <c r="J41" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K41" s="33">
+        <f t="shared" ref="K41:K59" si="1">I41*J41</f>
+        <v>44007.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="48">
+        <v>20230125</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="37">
+        <v>9888</v>
+      </c>
+      <c r="J42" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K42" s="33">
+        <f t="shared" si="1"/>
+        <v>6921.5999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="48">
+        <v>20230125</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" s="37">
+        <v>93168</v>
+      </c>
+      <c r="J43" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K43" s="33">
+        <f t="shared" si="1"/>
+        <v>65217.599999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="48">
+        <v>20230127</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="I44" s="37">
+        <v>85428</v>
+      </c>
+      <c r="J44" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K44" s="33">
+        <f t="shared" si="1"/>
+        <v>59799.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="48">
+        <v>20220901</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="37">
+        <v>3530</v>
+      </c>
+      <c r="J45" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K45" s="33">
+        <f t="shared" si="1"/>
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="48">
+        <v>20220901</v>
+      </c>
+      <c r="F46" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" s="37">
+        <v>343</v>
+      </c>
+      <c r="J46" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K46" s="33">
+        <f t="shared" si="1"/>
+        <v>240.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="48">
+        <v>20220901</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" s="37">
+        <v>2065</v>
+      </c>
+      <c r="J47" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K47" s="33">
+        <f t="shared" si="1"/>
+        <v>1445.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="48">
+        <v>20220901</v>
+      </c>
+      <c r="F48" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I48" s="37">
+        <v>342</v>
+      </c>
+      <c r="J48" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K48" s="33">
+        <f t="shared" si="1"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="48">
+        <v>20220901</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" s="37">
+        <v>2236</v>
+      </c>
+      <c r="J49" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K49" s="33">
+        <f t="shared" si="1"/>
+        <v>1565.1999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="48">
+        <v>20220901</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="37">
+        <v>342</v>
+      </c>
+      <c r="J50" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K50" s="33">
+        <f t="shared" si="1"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="48">
+        <v>20221101</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" s="37">
+        <v>2427</v>
+      </c>
+      <c r="J51" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K51" s="33">
+        <f t="shared" si="1"/>
+        <v>1698.8999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="48">
+        <v>20221101</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52" s="37">
+        <v>342</v>
+      </c>
+      <c r="J52" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K52" s="33">
+        <f t="shared" si="1"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="48">
+        <v>20221101</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="37">
+        <v>1219</v>
+      </c>
+      <c r="J53" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K53" s="33">
+        <f t="shared" si="1"/>
+        <v>853.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="48">
+        <v>20221101</v>
+      </c>
+      <c r="F54" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" s="37">
+        <v>372</v>
+      </c>
+      <c r="J54" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K54" s="33">
+        <f t="shared" si="1"/>
+        <v>260.39999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="48">
+        <v>20221201</v>
+      </c>
+      <c r="F55" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="37">
+        <v>2624</v>
+      </c>
+      <c r="J55" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K55" s="33">
+        <f t="shared" si="1"/>
+        <v>1836.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="48">
+        <v>20221201</v>
+      </c>
+      <c r="F56" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G56" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="37">
+        <v>386</v>
+      </c>
+      <c r="J56" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K56" s="33">
+        <f t="shared" si="1"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="48">
+        <v>20230101</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="I57" s="37">
+        <v>2203</v>
+      </c>
+      <c r="J57" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K57" s="33">
+        <f t="shared" si="1"/>
+        <v>1542.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="48">
+        <v>20230101</v>
+      </c>
+      <c r="F58" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H58" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="I58" s="37">
+        <v>387</v>
+      </c>
+      <c r="J58" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K58" s="33">
+        <f t="shared" si="1"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="48">
+        <v>20230201</v>
+      </c>
+      <c r="F59" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" s="37">
+        <v>2420</v>
+      </c>
+      <c r="J59" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K59" s="33">
+        <f t="shared" si="1"/>
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="35">
+        <f>SUM(K40:K59)</f>
+        <v>197532.99999999997</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A40:A59"/>
+    <mergeCell ref="B40:B59"/>
+    <mergeCell ref="A60:J60"/>
     <mergeCell ref="A39:J39"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B4:B15"/>
@@ -5933,8 +6655,9 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="16" max="16383" man="1"/>
+    <brk id="39" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -5943,9 +6666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48418D21-3D32-4263-8E16-B31D83DBE4A6}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5977,7 +6700,7 @@
         <f ca="1">COUNTA(OFFSET(B$7,0,0,COUNTA(A:A)-1,1))&amp;"名"</f>
         <v>11名</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5995,49 +6718,49 @@
       <c r="G2" s="12"/>
     </row>
     <row r="5" spans="1:24" s="17" customFormat="1">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47" t="s">
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
       <c r="X5" s="16"/>
     </row>
     <row r="6" spans="1:24" s="17" customFormat="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="23" t="s">
         <v>9</v>
       </c>
